--- a/eletronicos_dicionario.xlsx
+++ b/eletronicos_dicionario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alunos\repositories\modelagem_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A5D05E-B017-4B0B-ACB6-55F75B478BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607B2BBE-4571-4C66-AFC1-ECB89D383A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{C402C656-23C7-49A2-859D-C12615F76A87}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
   <si>
     <t>Loja de calçados e acessórios</t>
   </si>
@@ -57,30 +57,18 @@
     <t>Chave</t>
   </si>
   <si>
-    <t>codigo</t>
-  </si>
-  <si>
     <t>preco</t>
   </si>
   <si>
     <t>Produto</t>
   </si>
   <si>
-    <t>id_cliente</t>
-  </si>
-  <si>
     <t>pk</t>
   </si>
   <si>
     <t>Venda</t>
   </si>
   <si>
-    <t>numero_da_venda</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>valor_total</t>
   </si>
   <si>
@@ -90,39 +78,12 @@
     <t>status</t>
   </si>
   <si>
-    <t>fk_Cliente_id_cliente</t>
-  </si>
-  <si>
     <t>fk</t>
   </si>
   <si>
-    <t>Estoque</t>
-  </si>
-  <si>
-    <t>id_estoque</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>VendaProduto</t>
   </si>
   <si>
-    <t>fk_Produto_codigo</t>
-  </si>
-  <si>
-    <t>fk_Venda_numero_da_venda</t>
-  </si>
-  <si>
-    <t>ProdutoEstoque</t>
-  </si>
-  <si>
-    <t>fk_Estoque_id_estoque</t>
-  </si>
-  <si>
-    <t>quantidade_disponivel</t>
-  </si>
-  <si>
     <t>INTEGER</t>
   </si>
   <si>
@@ -135,21 +96,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>preço do produto, por exemplo 1123.50</t>
-  </si>
-  <si>
-    <t>categoria, por exemplo "acessórios masculinos"</t>
-  </si>
-  <si>
-    <t>tamanho, por exemplo 43</t>
-  </si>
-  <si>
-    <t>descrição do produto em 250 caracteres</t>
-  </si>
-  <si>
-    <t>nome do produto, por exemplo "Calçado Mocassim Marrom com fivela dourada"</t>
-  </si>
-  <si>
     <t>número para identificação e consulta</t>
   </si>
   <si>
@@ -186,15 +132,6 @@
     <t>número para identificação e consulta na tabela Venda</t>
   </si>
   <si>
-    <t>número para identificação e consulta na tabela Estoque</t>
-  </si>
-  <si>
-    <t>quantidade de itens disponíveis para um produto específico em um estoque específico</t>
-  </si>
-  <si>
-    <t>nome do local do estoque, por exemplo "Galpão 3 Girasol em Holambra/SP"</t>
-  </si>
-  <si>
     <t>endereco_linha_2</t>
   </si>
   <si>
@@ -250,6 +187,102 @@
   </si>
   <si>
     <t>quantidade de itens vendidos daquele produto</t>
+  </si>
+  <si>
+    <t>Servico</t>
+  </si>
+  <si>
+    <t>marca do produto, por exemplo "Xiaomi"</t>
+  </si>
+  <si>
+    <t>nome do produto, por exemplo "Redmi Note 12S 5G 256gb / 8gb ram"</t>
+  </si>
+  <si>
+    <t>modelo, por exemplo "Redmi Note 12S"</t>
+  </si>
+  <si>
+    <t>preço do produto, por exemplo 1998.89</t>
+  </si>
+  <si>
+    <t>id_venda</t>
+  </si>
+  <si>
+    <t>cod_ean</t>
+  </si>
+  <si>
+    <t>número de série do produto</t>
+  </si>
+  <si>
+    <t>data_venda</t>
+  </si>
+  <si>
+    <t>previsao_entrega</t>
+  </si>
+  <si>
+    <t>data prevista para a entrega</t>
+  </si>
+  <si>
+    <t>data_entrega</t>
+  </si>
+  <si>
+    <t>data em que a entrega foi realizada</t>
+  </si>
+  <si>
+    <t>fk_Cliete_cpf</t>
+  </si>
+  <si>
+    <t>cpf</t>
+  </si>
+  <si>
+    <t>cpf para identificação e consulta</t>
+  </si>
+  <si>
+    <t>id_servico</t>
+  </si>
+  <si>
+    <t>nome do serviço, por exemplo "garantia para video-games e acessórios"</t>
+  </si>
+  <si>
+    <t>descricao</t>
+  </si>
+  <si>
+    <t>descrição do serviço</t>
+  </si>
+  <si>
+    <t>valor do servico, por exemplo 250.00</t>
+  </si>
+  <si>
+    <t>tempo_da_garantia</t>
+  </si>
+  <si>
+    <t>caso seja um produto de garantia, este campo conterá a quantidade em meses da garantia</t>
+  </si>
+  <si>
+    <t>fk_Produto_cod_ean</t>
+  </si>
+  <si>
+    <t>fk_Venda_id_venda</t>
+  </si>
+  <si>
+    <t>para_presente</t>
+  </si>
+  <si>
+    <t>booleana para identificar se é para presente</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>VendaServico</t>
+  </si>
+  <si>
+    <t>fk_Servico_id_servico</t>
+  </si>
+  <si>
+    <t>código EAN do produto opcional caso o serviço se refira a um produto em específico</t>
+  </si>
+  <si>
+    <t>número para identificação e consulta na tabela Servico</t>
   </si>
 </sst>
 </file>
@@ -291,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -388,11 +421,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -427,7 +469,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,6 +490,109 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1422400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7391400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2695533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D631599B-1D23-4D12-8FE6-06ADE05EFE54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="28597"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1873250" y="127000"/>
+          <a:ext cx="7772400" cy="2568533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1327150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7302500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3629519</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3345D4B1-4705-46ED-9EA0-CE501F7E45AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="32789" r="-82"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1778000" y="3879850"/>
+          <a:ext cx="7778750" cy="3553319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -742,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6981007-03C4-448A-AF72-A4C2E9F20287}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -755,113 +905,97 @@
     <col min="3" max="3" width="108.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" ht="223.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="287.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1">
-        <v>30</v>
-      </c>
-    </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -870,13 +1004,13 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -885,28 +1019,28 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1">
         <v>50</v>
@@ -915,347 +1049,349 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1">
         <v>6</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="1">
-        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1">
-        <v>25</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="D26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="7">
         <v>6</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="5">
-        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="5">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="5">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="E30" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="E31" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="6">
+      <c r="D34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="6">
         <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="6">
-        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1281,146 +1417,262 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E37" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E38" s="1">
-        <v>6</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1">
+        <v>250</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="D40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="1" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="D47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="2">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A41:E41"/>
+  <mergeCells count="9">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A25:E25"/>
     <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A42:E42"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>